--- a/data/contribution/Aquaponics - Water Quality.xlsx
+++ b/data/contribution/Aquaponics - Water Quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilaxeltellbuescher/Projekte/Projekt18 - PhD-Aquaponics/data/contribution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEE9828-AA7E-8E49-B112-F27AD643F001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7350B9-552B-8D40-A162-E2F4222E3218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{C5E9C466-93C4-574F-B63C-9AC7A4C519C5}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="24740" windowHeight="15500" activeTab="1" xr2:uid="{C5E9C466-93C4-574F-B63C-9AC7A4C519C5}"/>
   </bookViews>
   <sheets>
     <sheet name="important Notes" sheetId="3" r:id="rId1"/>
@@ -1209,39 +1209,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{955468EA-1ED9-9B41-8FD2-B4BCBFDCBCC0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Anıl Tellbüscher:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>20 degree Celsius</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -2498,7 +2465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="200">
   <si>
     <t>Reference_ID</t>
   </si>
@@ -3080,6 +3047,24 @@
   </si>
   <si>
     <t>Wädenswill</t>
+  </si>
+  <si>
+    <t>Kanton Zürich</t>
+  </si>
+  <si>
+    <t>Ayr Water Supply System</t>
+  </si>
+  <si>
+    <t>Minstry of the Environment</t>
+  </si>
+  <si>
+    <t>Antalya</t>
+  </si>
+  <si>
+    <t>Waedenswill</t>
+  </si>
+  <si>
+    <t>Zurich</t>
   </si>
 </sst>
 </file>
@@ -3225,7 +3210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3238,7 +3223,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3385,13 +3372,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97C8753E-B248-414E-8E09-FCA8EAD9E6A1}" name="Tabelle1" displayName="Tabelle1" ref="A1:AU66" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:AU66" xr:uid="{97C8753E-B248-414E-8E09-FCA8EAD9E6A1}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AU66" xr:uid="{97C8753E-B248-414E-8E09-FCA8EAD9E6A1}"/>
   <tableColumns count="47">
     <tableColumn id="1" xr3:uid="{C558097B-EFFD-1E4D-9DAB-5449764A12C3}" name="Reference_ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{2354C398-FE28-B547-9546-B8AAC399AADA}" name="Location" dataDxfId="5"/>
@@ -3770,403 +3751,405 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0AF2B6-B8C0-5345-9388-68D583236E6D}">
-  <dimension ref="A1:AU15"/>
+  <dimension ref="A1:AU19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:47" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AN1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AR1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AT1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AU1" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:47" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="13">
         <v>2021</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="13">
         <v>7.4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="13">
         <v>880</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="13">
         <v>0.05</v>
       </c>
-      <c r="K2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2">
+      <c r="K2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="13">
         <v>0.03</v>
       </c>
-      <c r="M2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="13">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2">
+      <c r="O2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="13">
         <v>0.02</v>
       </c>
-      <c r="Q2" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2">
+      <c r="Q2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="13">
         <v>6.2</v>
       </c>
-      <c r="S2" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2">
+      <c r="S2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="13">
         <v>117</v>
       </c>
-      <c r="U2" t="s">
-        <v>91</v>
-      </c>
-      <c r="V2">
+      <c r="U2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" s="13">
         <v>13.5</v>
       </c>
-      <c r="W2" t="s">
-        <v>91</v>
-      </c>
-      <c r="X2">
+      <c r="W2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" s="13">
         <v>166</v>
       </c>
-      <c r="Y2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z2">
+      <c r="Y2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" s="13">
         <v>0.05</v>
       </c>
-      <c r="AA2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB2">
+      <c r="AA2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2" s="13">
         <v>0.01</v>
       </c>
-      <c r="AC2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD2">
+      <c r="AC2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD2" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AE2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF2">
+      <c r="AE2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF2" s="13">
         <v>0.01</v>
       </c>
-      <c r="AG2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH2">
+      <c r="AG2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH2" s="13">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AI2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL2">
+      <c r="AI2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL2" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AM2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN2">
+      <c r="AM2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN2" s="13">
         <v>43</v>
       </c>
-      <c r="AO2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP2">
+      <c r="AO2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP2" s="13">
         <v>67</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR2">
+      <c r="AQ2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR2" s="13">
         <v>0.01</v>
       </c>
-      <c r="AS2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT2">
+      <c r="AS2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT2" s="13">
         <v>3.6</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:47" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="13">
         <v>2022</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="13">
         <v>7.51</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="13">
         <v>781</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="13">
         <v>0.11</v>
       </c>
-      <c r="K3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3">
+      <c r="K3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="13">
         <v>10.1</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3">
+      <c r="O3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="13">
         <v>4.55</v>
       </c>
-      <c r="S3" t="s">
-        <v>91</v>
-      </c>
-      <c r="T3">
+      <c r="S3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" s="13">
         <v>110</v>
       </c>
-      <c r="U3" t="s">
-        <v>91</v>
-      </c>
-      <c r="V3">
+      <c r="U3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="V3" s="13">
         <v>9.69</v>
       </c>
-      <c r="W3" t="s">
-        <v>91</v>
-      </c>
-      <c r="X3">
+      <c r="W3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" s="13">
         <v>87.4</v>
       </c>
-      <c r="Y3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z3">
+      <c r="Y3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3" s="13">
         <v>0.02</v>
       </c>
-      <c r="AA3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF3">
+      <c r="AA3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF3" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AG3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN3">
+      <c r="AG3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN3" s="13">
         <v>35.6</v>
       </c>
-      <c r="AO3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP3">
+      <c r="AO3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3" s="13">
         <v>63.8</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT3">
+      <c r="AQ3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT3" s="13">
         <v>3.7</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4">
         <v>2021</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>40</v>
       </c>
       <c r="H4">
@@ -4178,7 +4161,7 @@
       <c r="J4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" t="s">
         <v>91</v>
       </c>
       <c r="L4">
@@ -4190,7 +4173,7 @@
       <c r="N4">
         <v>3.6</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" t="s">
         <v>91</v>
       </c>
       <c r="P4">
@@ -4278,24 +4261,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>2020</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>40</v>
       </c>
       <c r="H5">
@@ -4310,7 +4292,7 @@
       <c r="K5" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5">
         <v>0.01</v>
       </c>
       <c r="M5" t="s">
@@ -4319,7 +4301,7 @@
       <c r="N5">
         <v>0.81</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" t="s">
         <v>91</v>
       </c>
       <c r="P5">
@@ -4407,24 +4389,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>2022</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>40</v>
       </c>
       <c r="H6">
@@ -4548,24 +4529,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>2022</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>40</v>
       </c>
       <c r="H7">
@@ -4616,7 +4596,7 @@
       <c r="AF7">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="AG7" s="9" t="s">
+      <c r="AG7" t="s">
         <v>91</v>
       </c>
       <c r="AJ7">
@@ -4656,34 +4636,32 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>2022</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>40</v>
       </c>
       <c r="N8">
         <v>2.7850000000000001</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" t="s">
         <v>91</v>
       </c>
       <c r="P8">
         <v>0.80600000000000005</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" t="s">
         <v>91</v>
       </c>
       <c r="R8">
@@ -4760,70 +4738,971 @@
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3" t="s">
-        <v>40</v>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9">
+        <v>2021</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <v>299</v>
+        <v>7.3</v>
       </c>
       <c r="N9">
-        <v>3.5</v>
+        <v>0.75</v>
       </c>
       <c r="O9" t="s">
         <v>91</v>
       </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>91</v>
+      </c>
       <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9">
+        <v>9</v>
+      </c>
+      <c r="U9" t="s">
+        <v>91</v>
+      </c>
+      <c r="V9">
+        <v>2.7</v>
+      </c>
+      <c r="W9" t="s">
+        <v>91</v>
+      </c>
+      <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN9">
+        <v>17</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP9">
+        <v>25</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR9">
+        <v>0.02</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT9">
+        <v>1.7</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10">
+        <v>2021</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>7.6</v>
+      </c>
+      <c r="I10">
+        <v>591.4</v>
+      </c>
+      <c r="N10">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="O10" t="s">
+        <v>91</v>
+      </c>
+      <c r="T10">
+        <v>113</v>
+      </c>
+      <c r="U10" t="s">
+        <v>91</v>
+      </c>
+      <c r="X10">
+        <v>23.3</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN10">
+        <v>8.9</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11">
+        <v>2022</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11">
+        <v>7.48</v>
+      </c>
+      <c r="I11">
+        <v>399</v>
+      </c>
+      <c r="J11">
+        <v>0.05</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11">
+        <v>0.02</v>
+      </c>
+      <c r="M11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11">
+        <v>5.24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="X11">
+        <v>43.7</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z11">
+        <v>0.02</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD11">
+        <v>0.01</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF11">
+        <v>0.01</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH11">
+        <v>0.05</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL11">
+        <v>2E-3</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN11">
+        <v>20.98</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP11">
+        <v>31.9</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR11">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT11">
+        <v>2.79</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12">
+        <v>2013</v>
+      </c>
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <v>7.4</v>
+      </c>
+      <c r="I12">
+        <v>590</v>
+      </c>
+      <c r="J12">
         <v>1.2</v>
       </c>
-      <c r="S9" t="s">
-        <v>91</v>
-      </c>
-      <c r="T9">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="U9" t="s">
-        <v>91</v>
-      </c>
-      <c r="V9">
-        <v>5.5</v>
-      </c>
-      <c r="W9" t="s">
-        <v>91</v>
-      </c>
-      <c r="X9">
-        <v>14</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN9">
-        <v>4.7</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP9">
-        <v>6.3</v>
-      </c>
-      <c r="AQ9" t="s">
+      <c r="K12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12">
+        <v>0.02</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12">
+        <v>27.9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12">
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13">
+        <v>2022</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13">
+        <v>7.31</v>
+      </c>
+      <c r="I13">
+        <v>626</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>0.2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13">
+        <v>14.09</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13">
+        <v>0.4</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13">
+        <v>1.55</v>
+      </c>
+      <c r="S13" t="s">
+        <v>91</v>
+      </c>
+      <c r="T13">
+        <v>92.37</v>
+      </c>
+      <c r="U13" t="s">
+        <v>91</v>
+      </c>
+      <c r="V13">
+        <v>17.43</v>
+      </c>
+      <c r="W13" t="s">
+        <v>91</v>
+      </c>
+      <c r="X13">
+        <v>25.8</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z13">
+        <v>2.9659999999999999E-2</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF13">
+        <v>0.02</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH13">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL13">
+        <v>1E-3</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN13">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP13">
+        <v>21.74</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT13">
+        <v>0.9</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14">
+        <v>2021</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14">
+        <v>8.4</v>
+      </c>
+      <c r="I14">
+        <v>329</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14">
+        <v>0.04</v>
+      </c>
+      <c r="M14" t="s">
+        <v>90</v>
+      </c>
+      <c r="T14">
+        <v>26</v>
+      </c>
+      <c r="U14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V14">
+        <v>4.8</v>
+      </c>
+      <c r="W14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z14">
+        <v>5.4500000000000007E-2</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD14">
+        <v>1E-4</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF14">
+        <v>0.01</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AS14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="C15" s="12"/>
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15">
+        <v>2022</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>7.81</v>
+      </c>
+      <c r="I15">
+        <v>367</v>
+      </c>
+      <c r="J15">
+        <v>0.01</v>
+      </c>
+      <c r="K15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15">
+        <v>6.8</v>
+      </c>
+      <c r="O15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15">
+        <v>0.02</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>90</v>
+      </c>
+      <c r="T15">
+        <v>53</v>
+      </c>
+      <c r="U15" t="s">
+        <v>91</v>
+      </c>
+      <c r="V15">
+        <v>14</v>
+      </c>
+      <c r="W15" t="s">
+        <v>91</v>
+      </c>
+      <c r="X15">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z15">
+        <v>0.01</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD15">
+        <v>1E-3</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF15">
+        <v>0.01</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15">
+        <v>2E-3</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN15">
+        <v>2.6</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP15">
+        <v>5.7</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT15">
+        <v>1.79</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16">
+        <v>2021</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <v>0.01</v>
+      </c>
+      <c r="M16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="O16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH16">
+        <v>0.01</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN16">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17">
+        <v>2022</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I17">
+        <v>323</v>
+      </c>
+      <c r="L17">
+        <v>0.25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>90</v>
+      </c>
+      <c r="N17">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="O17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17">
+        <v>0.06</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17">
+        <v>1.37</v>
+      </c>
+      <c r="S17" t="s">
+        <v>91</v>
+      </c>
+      <c r="T17">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="U17" t="s">
+        <v>91</v>
+      </c>
+      <c r="V17">
+        <v>11.8</v>
+      </c>
+      <c r="W17" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17">
+        <v>23</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z17">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB17">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD17">
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF17">
+        <v>1E-3</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH17">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ17">
+        <v>1E-3</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL17">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN17">
+        <v>8.68</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP17">
+        <v>14.2</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR17">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT17">
+        <v>1.94</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18">
+        <v>2022</v>
+      </c>
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18">
+        <v>7.66</v>
+      </c>
+      <c r="J18">
+        <v>0.15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18">
+        <v>0.03</v>
+      </c>
+      <c r="M18" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18">
+        <v>11.8</v>
+      </c>
+      <c r="O18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18">
+        <v>0.115</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>91</v>
+      </c>
+      <c r="R18">
+        <v>14</v>
+      </c>
+      <c r="S18" t="s">
+        <v>91</v>
+      </c>
+      <c r="T18">
+        <v>77</v>
+      </c>
+      <c r="U18" t="s">
+        <v>91</v>
+      </c>
+      <c r="V18">
+        <v>19</v>
+      </c>
+      <c r="W18" t="s">
+        <v>91</v>
+      </c>
+      <c r="X18">
+        <v>126</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB18">
+        <v>0.1</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH18">
+        <v>0.215</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ18">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL18">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN18">
+        <v>108</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR18">
+        <v>0.03</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT18">
+        <v>1.2</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19">
+        <v>2022</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>299</v>
+      </c>
+      <c r="N19">
+        <v>3.5</v>
+      </c>
+      <c r="O19" t="s">
+        <v>91</v>
+      </c>
+      <c r="R19">
+        <v>1.2</v>
+      </c>
+      <c r="S19" t="s">
+        <v>91</v>
+      </c>
+      <c r="T19">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="U19" t="s">
+        <v>91</v>
+      </c>
+      <c r="V19">
+        <v>5.5</v>
+      </c>
+      <c r="W19" t="s">
+        <v>91</v>
+      </c>
+      <c r="X19">
+        <v>14</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN19">
+        <v>4.7</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP19">
+        <v>6.3</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4842,7 +5721,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A66" activeCellId="8" sqref="A1:XFD1 A2:XFD2 A3:XFD3 A13:XFD13 A18:XFD18 A19:XFD19 A20:XFD20 A21:XFD21 A66:XFD66"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5244,7 +6123,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -5363,7 +6242,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -5476,7 +6355,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -5589,7 +6468,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:53" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -5705,7 +6584,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:53" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -5815,7 +6694,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:53" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -5925,7 +6804,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -6035,7 +6914,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -6145,7 +7024,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -6384,7 +7263,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -6461,7 +7340,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -6541,7 +7420,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -6618,7 +7497,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -7172,7 +8051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>113</v>
       </c>
@@ -7272,7 +8151,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>116</v>
       </c>
@@ -7319,7 +8198,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>120</v>
       </c>
@@ -7420,7 +8299,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>126</v>
       </c>
@@ -7521,7 +8400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>127</v>
       </c>
@@ -7622,7 +8501,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>128</v>
       </c>
@@ -7723,7 +8602,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>129</v>
       </c>
@@ -7824,7 +8703,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>130</v>
       </c>
@@ -7925,7 +8804,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>131</v>
       </c>
@@ -8026,7 +8905,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>132</v>
       </c>
@@ -8127,7 +9006,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>133</v>
       </c>
@@ -8228,7 +9107,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>134</v>
       </c>
@@ -8329,7 +9208,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>135</v>
       </c>
@@ -8430,7 +9309,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>136</v>
       </c>
@@ -8531,7 +9410,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>125</v>
       </c>
@@ -8580,7 +9459,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>122</v>
       </c>
@@ -8705,7 +9584,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>137</v>
       </c>
@@ -8830,7 +9709,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>138</v>
       </c>
@@ -8955,7 +9834,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>139</v>
       </c>
@@ -9080,7 +9959,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>140</v>
       </c>
@@ -9205,7 +10084,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>160</v>
       </c>
@@ -9283,7 +10162,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>163</v>
       </c>
@@ -9396,7 +10275,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>163</v>
       </c>
@@ -9509,7 +10388,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>164</v>
       </c>
@@ -9637,7 +10516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>148</v>
       </c>
@@ -9753,7 +10632,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>148</v>
       </c>
@@ -9869,7 +10748,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>148</v>
       </c>
@@ -9985,7 +10864,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>148</v>
       </c>
@@ -10101,7 +10980,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>166</v>
       </c>
@@ -10220,7 +11099,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>166</v>
       </c>
@@ -10339,7 +11218,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
         <v>169</v>
       </c>
@@ -10464,7 +11343,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
         <v>170</v>
       </c>
@@ -10589,7 +11468,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
         <v>171</v>
       </c>
@@ -10714,7 +11593,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>173</v>
       </c>
@@ -10840,7 +11719,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>173</v>
       </c>
@@ -10956,7 +11835,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>173</v>
       </c>
@@ -11072,7 +11951,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C58" s="5" t="s">
         <v>177</v>
       </c>
@@ -11108,7 +11987,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B59" s="5" t="s">
         <v>181</v>
       </c>
@@ -11147,7 +12026,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
         <v>182</v>
       </c>
@@ -11186,7 +12065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
         <v>185</v>
       </c>
@@ -11314,7 +12193,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B62" s="5" t="s">
         <v>186</v>
       </c>
@@ -11442,7 +12321,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B63" s="5" t="s">
         <v>187</v>
       </c>
@@ -11570,7 +12449,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B64" s="5" t="s">
         <v>188</v>
       </c>
@@ -11698,7 +12577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>191</v>
       </c>
@@ -11829,6 +12708,9 @@
     <row r="66" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C66" s="5" t="s">
         <v>193</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2022</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>30</v>

--- a/data/contribution/Aquaponics - Water Quality.xlsx
+++ b/data/contribution/Aquaponics - Water Quality.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilaxeltellbuescher/Projekte/Projekt18 - PhD-Aquaponics/data/contribution/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD/Projekte/Projekt18 - PhD-Aquaponics/data/contribution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7350B9-552B-8D40-A162-E2F4222E3218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35422612-2463-E543-AD41-1A2744C5E5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="24740" windowHeight="15500" activeTab="1" xr2:uid="{C5E9C466-93C4-574F-B63C-9AC7A4C519C5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="33600" activeTab="1" xr2:uid="{C5E9C466-93C4-574F-B63C-9AC7A4C519C5}"/>
   </bookViews>
   <sheets>
     <sheet name="important Notes" sheetId="3" r:id="rId1"/>
@@ -2465,7 +2465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="196">
   <si>
     <t>Reference_ID</t>
   </si>
@@ -3049,22 +3049,10 @@
     <t>Wädenswill</t>
   </si>
   <si>
-    <t>Kanton Zürich</t>
-  </si>
-  <si>
-    <t>Ayr Water Supply System</t>
-  </si>
-  <si>
-    <t>Minstry of the Environment</t>
-  </si>
-  <si>
-    <t>Antalya</t>
-  </si>
-  <si>
-    <t>Waedenswill</t>
-  </si>
-  <si>
-    <t>Zurich</t>
+    <t>Torgau</t>
+  </si>
+  <si>
+    <t>Minden</t>
   </si>
 </sst>
 </file>
@@ -3210,7 +3198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3223,9 +3211,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3751,10 +3736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0AF2B6-B8C0-5345-9388-68D583236E6D}">
-  <dimension ref="A1:AU19"/>
+  <dimension ref="A1:BA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3764,530 +3749,518 @@
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:53" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AK1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AL1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AM1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AN1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AO1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AP1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AR1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AS1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AT1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AU1" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:53" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2">
         <v>2021</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2">
         <v>7.4</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2">
         <v>880</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2">
         <v>0.05</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="13">
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2">
         <v>0.03</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" s="13">
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="13">
+      <c r="O2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2">
         <v>0.02</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="13">
+      <c r="Q2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2">
         <v>6.2</v>
       </c>
-      <c r="S2" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="13">
+      <c r="S2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2">
         <v>117</v>
       </c>
-      <c r="U2" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V2" s="13">
+      <c r="U2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2">
         <v>13.5</v>
       </c>
-      <c r="W2" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X2" s="13">
+      <c r="W2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2">
         <v>166</v>
       </c>
-      <c r="Y2" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z2" s="13">
+      <c r="Y2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2">
         <v>0.05</v>
       </c>
-      <c r="AA2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB2" s="13">
+      <c r="AA2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2">
         <v>0.01</v>
       </c>
-      <c r="AC2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD2" s="13">
+      <c r="AC2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AE2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF2" s="13">
+      <c r="AE2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF2">
         <v>0.01</v>
       </c>
-      <c r="AG2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH2" s="13">
+      <c r="AG2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AI2" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL2" s="13">
+      <c r="AI2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AM2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN2" s="13">
+      <c r="AM2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN2">
         <v>43</v>
       </c>
-      <c r="AO2" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP2" s="13">
+      <c r="AO2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP2">
         <v>67</v>
       </c>
-      <c r="AQ2" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR2" s="13">
+      <c r="AQ2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR2">
         <v>0.01</v>
       </c>
-      <c r="AS2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT2" s="13">
+      <c r="AS2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT2">
         <v>3.6</v>
       </c>
-      <c r="AU2" s="13" t="s">
+      <c r="AU2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:53" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3">
         <v>2022</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3">
         <v>7.51</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3">
         <v>781</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3">
         <v>0.11</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" s="13">
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3">
         <v>10.1</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" s="13">
+      <c r="O3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3">
         <v>4.55</v>
       </c>
-      <c r="S3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T3" s="13">
+      <c r="S3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3">
         <v>110</v>
       </c>
-      <c r="U3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V3" s="13">
+      <c r="U3" t="s">
+        <v>91</v>
+      </c>
+      <c r="V3">
         <v>9.69</v>
       </c>
-      <c r="W3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X3" s="13">
+      <c r="W3" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3">
         <v>87.4</v>
       </c>
-      <c r="Y3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z3" s="13">
+      <c r="Y3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3">
         <v>0.02</v>
       </c>
-      <c r="AA3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF3" s="13">
+      <c r="AA3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AG3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN3" s="13">
+      <c r="AG3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN3">
         <v>35.6</v>
       </c>
-      <c r="AO3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP3" s="13">
+      <c r="AO3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3">
         <v>63.8</v>
       </c>
-      <c r="AQ3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT3" s="13">
+      <c r="AQ3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT3">
         <v>3.7</v>
       </c>
-      <c r="AU3" s="13" t="s">
+      <c r="AU3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D4">
         <v>2021</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>7.9</v>
+        <v>7.29</v>
       </c>
       <c r="I4">
-        <v>284</v>
+        <v>680</v>
       </c>
       <c r="J4">
-        <v>7.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L4">
-        <v>2E-3</v>
+        <v>0.02</v>
       </c>
       <c r="M4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N4">
-        <v>3.6</v>
+        <v>16</v>
       </c>
       <c r="O4" t="s">
         <v>91</v>
       </c>
-      <c r="P4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>91</v>
-      </c>
       <c r="R4">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="s">
         <v>91</v>
       </c>
       <c r="T4">
-        <v>48.2</v>
+        <v>112</v>
       </c>
       <c r="U4" t="s">
         <v>91</v>
       </c>
       <c r="V4">
-        <v>6.6</v>
+        <v>9.9</v>
       </c>
       <c r="W4" t="s">
         <v>91</v>
       </c>
       <c r="X4">
-        <v>14.4</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="s">
         <v>91</v>
       </c>
       <c r="Z4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="AA4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB4">
+        <v>91</v>
+      </c>
+      <c r="AD4">
+        <v>0.01</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF4">
+        <v>0.01</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4">
         <v>1E-3</v>
       </c>
-      <c r="AC4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL4">
-        <v>5.0000000000000001E-4</v>
-      </c>
       <c r="AM4" t="s">
         <v>90</v>
       </c>
       <c r="AN4">
-        <v>6.4</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="s">
         <v>91</v>
       </c>
       <c r="AP4">
-        <v>6.4</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="s">
         <v>91</v>
       </c>
+      <c r="AR4">
+        <v>0.01</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT4">
+        <v>0.5</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>7.4</v>
-      </c>
-      <c r="I5">
-        <v>658</v>
+        <v>41</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K5" t="s">
         <v>90</v>
@@ -4299,49 +4272,43 @@
         <v>90</v>
       </c>
       <c r="N5">
-        <v>0.81</v>
+        <v>1.6</v>
       </c>
       <c r="O5" t="s">
         <v>91</v>
       </c>
-      <c r="P5">
-        <v>0.1</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>90</v>
-      </c>
       <c r="R5">
-        <v>1.56</v>
+        <v>4.7</v>
       </c>
       <c r="S5" t="s">
         <v>91</v>
       </c>
       <c r="T5">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
         <v>91</v>
       </c>
       <c r="V5">
-        <v>8.02</v>
+        <v>9.1</v>
       </c>
       <c r="W5" t="s">
         <v>91</v>
       </c>
       <c r="X5">
-        <v>79.5</v>
+        <v>127</v>
       </c>
       <c r="Y5" t="s">
         <v>91</v>
       </c>
       <c r="Z5">
-        <v>0.02</v>
+        <v>3.78E-2</v>
       </c>
       <c r="AA5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD5">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE5" t="s">
         <v>90</v>
@@ -4353,25 +4320,25 @@
         <v>90</v>
       </c>
       <c r="AH5">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="AI5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL5">
-        <v>5.0000000000000001E-3</v>
+        <v>9.1E-4</v>
       </c>
       <c r="AM5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN5">
-        <v>17.8</v>
+        <v>20.9</v>
       </c>
       <c r="AO5" t="s">
         <v>91</v>
       </c>
       <c r="AP5">
-        <v>48.4</v>
+        <v>42.4</v>
       </c>
       <c r="AQ5" t="s">
         <v>91</v>
@@ -4383,135 +4350,111 @@
         <v>90</v>
       </c>
       <c r="AT5">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AU5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="D6">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6">
-        <v>8.01</v>
-      </c>
-      <c r="I6">
-        <v>848</v>
+        <v>41</v>
       </c>
       <c r="J6">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="K6" t="s">
         <v>90</v>
       </c>
       <c r="L6">
+        <v>0.01</v>
+      </c>
+      <c r="M6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6">
+        <v>21.9</v>
+      </c>
+      <c r="U6" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6">
+        <v>3.4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6">
+        <v>26.4</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z6">
+        <v>1.52E-2</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH6">
         <v>0.02</v>
       </c>
-      <c r="M6" t="s">
-        <v>90</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6">
-        <v>0.3</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R6">
-        <v>11.4</v>
-      </c>
-      <c r="S6" t="s">
-        <v>91</v>
-      </c>
-      <c r="T6">
-        <v>69</v>
-      </c>
-      <c r="U6" t="s">
-        <v>91</v>
-      </c>
-      <c r="V6">
-        <v>25.2</v>
-      </c>
-      <c r="W6" t="s">
-        <v>91</v>
-      </c>
-      <c r="X6">
-        <v>145.6</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z6">
-        <v>0.04</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB6">
-        <v>0.02</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD6">
-        <v>0.01</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF6">
-        <v>0.01</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH6">
-        <v>0.16930000000000001</v>
-      </c>
       <c r="AI6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ6">
-        <v>2E-3</v>
-      </c>
-      <c r="AK6" t="s">
         <v>90</v>
       </c>
       <c r="AL6">
-        <v>4.0000000000000001E-3</v>
+        <v>5.1999999999999995E-4</v>
       </c>
       <c r="AM6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN6">
-        <v>85.6</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="s">
         <v>91</v>
       </c>
       <c r="AP6">
-        <v>55.75</v>
+        <v>19.3</v>
       </c>
       <c r="AQ6" t="s">
         <v>91</v>
@@ -4523,182 +4466,206 @@
         <v>90</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AU6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="D7">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="P7">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>90</v>
+        <v>7.75</v>
+      </c>
+      <c r="I7">
+        <v>276</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7">
+        <v>0.01</v>
+      </c>
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7">
+        <v>1.61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>91</v>
       </c>
       <c r="R7">
-        <v>0.24299999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="S7" t="s">
         <v>91</v>
       </c>
       <c r="T7">
-        <v>7.96</v>
+        <v>47.6</v>
       </c>
       <c r="U7" t="s">
         <v>91</v>
       </c>
       <c r="V7">
-        <v>0.95499999999999996</v>
+        <v>3.54</v>
       </c>
       <c r="W7" t="s">
         <v>91</v>
       </c>
+      <c r="X7">
+        <v>15.5</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
       <c r="Z7">
-        <v>1.95E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AA7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB7">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AC7" t="s">
         <v>90</v>
       </c>
       <c r="AD7">
-        <v>7.9199999999999995E-4</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AE7" t="s">
         <v>91</v>
       </c>
       <c r="AF7">
-        <v>2.3999999999999998E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ7">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AK7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH7">
+        <v>0.02</v>
+      </c>
+      <c r="AI7" t="s">
         <v>90</v>
       </c>
       <c r="AL7">
-        <v>2.0000000000000001E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM7" t="s">
         <v>90</v>
       </c>
       <c r="AN7">
-        <v>2.36</v>
+        <v>9.5</v>
       </c>
       <c r="AO7" t="s">
         <v>91</v>
       </c>
       <c r="AP7">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="s">
         <v>91</v>
       </c>
-      <c r="AR7">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT7">
-        <v>0.8</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>91</v>
-      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="D8">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
         <v>40</v>
       </c>
+      <c r="H8">
+        <v>7.9</v>
+      </c>
+      <c r="I8">
+        <v>284</v>
+      </c>
+      <c r="J8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8">
+        <v>2E-3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
       <c r="N8">
-        <v>2.7850000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="O8" t="s">
         <v>91</v>
       </c>
       <c r="P8">
-        <v>0.80600000000000005</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q8" t="s">
         <v>91</v>
       </c>
       <c r="R8">
-        <v>1.79</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S8" t="s">
         <v>91</v>
       </c>
       <c r="T8">
-        <v>30.8</v>
+        <v>48.2</v>
       </c>
       <c r="U8" t="s">
         <v>91</v>
       </c>
       <c r="V8">
-        <v>3.32</v>
+        <v>6.6</v>
       </c>
       <c r="W8" t="s">
         <v>91</v>
       </c>
       <c r="X8">
-        <v>3.9590000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="Y8" t="s">
         <v>91</v>
       </c>
       <c r="Z8">
-        <v>1.09E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB8">
-        <v>9.8900000000000002E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="AC8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD8">
         <v>5.0000000000000001E-3</v>
@@ -4707,237 +4674,261 @@
         <v>90</v>
       </c>
       <c r="AF8">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AG8" t="s">
         <v>90</v>
       </c>
       <c r="AH8">
-        <v>1.4800000000000001E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AI8" t="s">
         <v>91</v>
       </c>
       <c r="AJ8">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AK8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL8">
-        <v>1.38E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AM8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN8">
-        <v>6.66</v>
+        <v>6.4</v>
       </c>
       <c r="AO8" t="s">
         <v>91</v>
       </c>
+      <c r="AP8">
+        <v>6.4</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
       <c r="B9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>2021</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
       </c>
       <c r="H9">
-        <v>7.3</v>
+        <v>6.9</v>
+      </c>
+      <c r="I9">
+        <v>489</v>
+      </c>
+      <c r="L9">
+        <v>0.01</v>
+      </c>
+      <c r="M9" t="s">
+        <v>90</v>
       </c>
       <c r="N9">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="O9" t="s">
         <v>91</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>2</v>
       </c>
-      <c r="Q9" t="s">
-        <v>91</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
       <c r="S9" t="s">
         <v>91</v>
       </c>
       <c r="T9">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="U9" t="s">
         <v>91</v>
       </c>
       <c r="V9">
-        <v>2.7</v>
+        <v>22</v>
       </c>
       <c r="W9" t="s">
         <v>91</v>
       </c>
       <c r="X9">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y9" t="s">
         <v>91</v>
       </c>
       <c r="Z9">
-        <v>2.9000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AA9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD9">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF9">
-        <v>1.7000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AG9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN9">
-        <v>17</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="s">
         <v>91</v>
       </c>
-      <c r="AR9">
-        <v>0.02</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT9">
-        <v>1.7</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>91</v>
-      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
       <c r="B10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>2021</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
       </c>
       <c r="H10">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="I10">
-        <v>591.4</v>
+        <v>159</v>
+      </c>
+      <c r="L10">
+        <v>0.01</v>
+      </c>
+      <c r="M10" t="s">
+        <v>90</v>
       </c>
       <c r="N10">
-        <v>36.299999999999997</v>
+        <v>1</v>
       </c>
       <c r="O10" t="s">
         <v>91</v>
       </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>91</v>
+      </c>
       <c r="T10">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="U10" t="s">
         <v>91</v>
       </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+      <c r="W10" t="s">
+        <v>91</v>
+      </c>
       <c r="X10">
-        <v>23.3</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="s">
         <v>91</v>
       </c>
-      <c r="AN10">
-        <v>8.9</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>91</v>
+      <c r="Z10">
+        <v>0.13</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF10">
+        <v>0.01</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP10">
+        <v>2</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
       <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
         <v>41</v>
       </c>
       <c r="H11">
-        <v>7.48</v>
+        <v>7.9</v>
       </c>
       <c r="I11">
-        <v>399</v>
-      </c>
-      <c r="J11">
-        <v>0.05</v>
-      </c>
-      <c r="K11" t="s">
-        <v>90</v>
+        <v>530</v>
       </c>
       <c r="L11">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M11" t="s">
         <v>90</v>
       </c>
       <c r="N11">
-        <v>5.24</v>
+        <v>4</v>
       </c>
       <c r="O11" t="s">
         <v>91</v>
       </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>91</v>
+      </c>
+      <c r="T11">
+        <v>68</v>
+      </c>
+      <c r="U11" t="s">
+        <v>91</v>
+      </c>
+      <c r="V11">
+        <v>20</v>
+      </c>
+      <c r="W11" t="s">
+        <v>91</v>
+      </c>
       <c r="X11">
-        <v>43.7</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="s">
         <v>91</v>
       </c>
       <c r="Z11">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AA11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD11">
-        <v>0.01</v>
-      </c>
-      <c r="AE11" t="s">
         <v>90</v>
       </c>
       <c r="AF11">
@@ -4946,266 +4937,305 @@
       <c r="AG11" t="s">
         <v>90</v>
       </c>
-      <c r="AH11">
-        <v>0.05</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL11">
-        <v>2E-3</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN11">
-        <v>20.98</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>91</v>
-      </c>
       <c r="AP11">
-        <v>31.9</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="s">
         <v>91</v>
       </c>
-      <c r="AR11">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT11">
-        <v>2.79</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>91</v>
-      </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
       <c r="B12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>41</v>
       </c>
       <c r="H12">
+        <v>7.8</v>
+      </c>
+      <c r="I12">
+        <v>622</v>
+      </c>
+      <c r="L12">
+        <v>0.01</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>91</v>
+      </c>
+      <c r="T12">
+        <v>79</v>
+      </c>
+      <c r="U12" t="s">
+        <v>91</v>
+      </c>
+      <c r="V12">
+        <v>19</v>
+      </c>
+      <c r="W12" t="s">
+        <v>91</v>
+      </c>
+      <c r="X12">
+        <v>14</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z12">
+        <v>0.01</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF12">
+        <v>0.01</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP12">
+        <v>7</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13">
         <v>7.4</v>
       </c>
-      <c r="I12">
-        <v>590</v>
-      </c>
-      <c r="J12">
-        <v>1.2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12">
+      <c r="I13">
+        <v>658</v>
+      </c>
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>0.01</v>
+      </c>
+      <c r="M13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13">
+        <v>0.81</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13">
+        <v>1.56</v>
+      </c>
+      <c r="S13" t="s">
+        <v>91</v>
+      </c>
+      <c r="T13">
+        <v>102</v>
+      </c>
+      <c r="U13" t="s">
+        <v>91</v>
+      </c>
+      <c r="V13">
+        <v>8.02</v>
+      </c>
+      <c r="W13" t="s">
+        <v>91</v>
+      </c>
+      <c r="X13">
+        <v>79.5</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z13">
         <v>0.02</v>
       </c>
-      <c r="M12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N12">
-        <v>27.9</v>
-      </c>
-      <c r="O12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12">
-        <v>1.9444444444444444</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="AA13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD13">
+        <v>0.01</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH13">
+        <v>0.02</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN13">
+        <v>17.8</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP13">
+        <v>48.4</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR13">
+        <v>0.02</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT13">
+        <v>1.3</v>
+      </c>
+      <c r="AU13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14">
         <v>2022</v>
       </c>
-      <c r="E13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13">
-        <v>7.31</v>
-      </c>
-      <c r="I13">
-        <v>626</v>
-      </c>
-      <c r="J13">
-        <v>10</v>
-      </c>
-      <c r="K13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13">
-        <v>0.2</v>
-      </c>
-      <c r="M13" t="s">
-        <v>90</v>
-      </c>
-      <c r="N13">
-        <v>14.09</v>
-      </c>
-      <c r="O13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P13">
-        <v>0.4</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>90</v>
-      </c>
-      <c r="R13">
-        <v>1.55</v>
-      </c>
-      <c r="S13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T13">
-        <v>92.37</v>
-      </c>
-      <c r="U13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V13">
-        <v>17.43</v>
-      </c>
-      <c r="W13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X13">
-        <v>25.8</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z13">
-        <v>2.9659999999999999E-2</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF13">
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>8.01</v>
+      </c>
+      <c r="I14">
+        <v>848</v>
+      </c>
+      <c r="J14">
+        <v>0.15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14">
         <v>0.02</v>
       </c>
-      <c r="AG13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH13">
-        <v>7.8600000000000003E-2</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL13">
-        <v>1E-3</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN13">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP13">
-        <v>21.74</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR13">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT13">
-        <v>0.9</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
-      <c r="E14" t="s">
-        <v>143</v>
-      </c>
-      <c r="H14">
-        <v>8.4</v>
-      </c>
-      <c r="I14">
-        <v>329</v>
-      </c>
-      <c r="J14">
-        <v>0.1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14">
+      <c r="M14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14">
+        <v>0.3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14">
+        <v>11.4</v>
+      </c>
+      <c r="S14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T14">
+        <v>69</v>
+      </c>
+      <c r="U14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V14">
+        <v>25.2</v>
+      </c>
+      <c r="W14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X14">
+        <v>145.6</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z14">
         <v>0.04</v>
       </c>
-      <c r="M14" t="s">
-        <v>90</v>
-      </c>
-      <c r="T14">
-        <v>26</v>
-      </c>
-      <c r="U14" t="s">
-        <v>91</v>
-      </c>
-      <c r="V14">
-        <v>4.8</v>
-      </c>
-      <c r="W14" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z14">
-        <v>5.4500000000000007E-2</v>
-      </c>
       <c r="AA14" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="AB14">
+        <v>0.02</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>90</v>
       </c>
       <c r="AD14">
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="AE14" t="s">
         <v>90</v>
@@ -5216,168 +5246,252 @@
       <c r="AG14" t="s">
         <v>90</v>
       </c>
+      <c r="AH14">
+        <v>0.16930000000000001</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ14">
+        <v>2E-3</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>90</v>
+      </c>
       <c r="AL14">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AM14" t="s">
         <v>90</v>
       </c>
+      <c r="AN14">
+        <v>85.6</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP14">
+        <v>55.75</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>91</v>
+      </c>
       <c r="AR14">
-        <v>1.9E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AS14" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="AT14">
+        <v>2</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
       </c>
       <c r="H15">
-        <v>7.81</v>
-      </c>
-      <c r="I15">
-        <v>367</v>
-      </c>
-      <c r="J15">
-        <v>0.01</v>
-      </c>
-      <c r="K15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="M15" t="s">
-        <v>90</v>
-      </c>
-      <c r="N15">
-        <v>6.8</v>
-      </c>
-      <c r="O15" t="s">
-        <v>91</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="P15">
-        <v>0.02</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="Q15" t="s">
         <v>90</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="S15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T15">
-        <v>53</v>
+        <v>7.96</v>
       </c>
       <c r="U15" t="s">
         <v>91</v>
       </c>
       <c r="V15">
-        <v>14</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="W15" t="s">
         <v>91</v>
       </c>
-      <c r="X15">
-        <v>21</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>91</v>
-      </c>
       <c r="Z15">
-        <v>0.01</v>
+        <v>1.95E-2</v>
       </c>
       <c r="AA15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AC15" t="s">
         <v>90</v>
       </c>
       <c r="AD15">
+        <v>7.9199999999999995E-4</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF15">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN15">
+        <v>2.36</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP15">
+        <v>3.4</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR15">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT15">
+        <v>0.8</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16">
+        <v>2022</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16">
+        <v>2.7850000000000001</v>
+      </c>
+      <c r="O16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>91</v>
+      </c>
+      <c r="R16">
+        <v>1.79</v>
+      </c>
+      <c r="S16" t="s">
+        <v>91</v>
+      </c>
+      <c r="T16">
+        <v>30.8</v>
+      </c>
+      <c r="U16" t="s">
+        <v>91</v>
+      </c>
+      <c r="V16">
+        <v>3.32</v>
+      </c>
+      <c r="W16" t="s">
+        <v>91</v>
+      </c>
+      <c r="X16">
+        <v>3.9590000000000001</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z16">
+        <v>1.09E-2</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB16">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF16">
         <v>1E-3</v>
       </c>
-      <c r="AE15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF15">
-        <v>0.01</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15">
-        <v>2E-3</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN15">
-        <v>2.6</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP15">
-        <v>5.7</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT15">
-        <v>1.79</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16">
-        <v>2021</v>
-      </c>
-      <c r="E16" t="s">
-        <v>178</v>
-      </c>
-      <c r="L16">
-        <v>0.01</v>
-      </c>
-      <c r="M16" t="s">
-        <v>90</v>
-      </c>
-      <c r="N16">
-        <v>2.0539999999999998</v>
-      </c>
-      <c r="O16" t="s">
-        <v>91</v>
+      <c r="AG16" t="s">
+        <v>90</v>
       </c>
       <c r="AH16">
-        <v>0.01</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="AI16" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="AJ16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL16">
+        <v>1.38E-2</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>91</v>
       </c>
       <c r="AN16">
-        <v>16.899999999999999</v>
+        <v>6.66</v>
       </c>
       <c r="AO16" t="s">
         <v>91</v>
@@ -5385,322 +5499,2292 @@
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="D17">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
       </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
       <c r="H17">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I17">
-        <v>323</v>
-      </c>
-      <c r="L17">
-        <v>0.25</v>
-      </c>
-      <c r="M17" t="s">
-        <v>90</v>
+        <v>7.3</v>
       </c>
       <c r="N17">
-        <v>0.36699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="O17" t="s">
         <v>91</v>
       </c>
       <c r="P17">
-        <v>0.06</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R17">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="S17" t="s">
         <v>91</v>
       </c>
       <c r="T17">
-        <v>34.200000000000003</v>
+        <v>9</v>
       </c>
       <c r="U17" t="s">
         <v>91</v>
       </c>
       <c r="V17">
-        <v>11.8</v>
+        <v>2.7</v>
       </c>
       <c r="W17" t="s">
         <v>91</v>
       </c>
       <c r="X17">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="Y17" t="s">
         <v>91</v>
       </c>
       <c r="Z17">
-        <v>4.1399999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AA17" t="s">
         <v>91</v>
       </c>
-      <c r="AB17">
-        <v>1.9499999999999999E-3</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>91</v>
-      </c>
       <c r="AD17">
-        <v>2.7200000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AE17" t="s">
         <v>91</v>
       </c>
       <c r="AF17">
-        <v>1E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AG17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH17">
-        <v>2.4400000000000002E-2</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ17">
-        <v>1E-3</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL17">
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="AM17" t="s">
         <v>91</v>
       </c>
       <c r="AN17">
-        <v>8.68</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="s">
         <v>91</v>
       </c>
       <c r="AP17">
-        <v>14.2</v>
+        <v>25</v>
       </c>
       <c r="AQ17" t="s">
         <v>91</v>
       </c>
       <c r="AR17">
-        <v>4.5400000000000003E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AS17" t="s">
         <v>91</v>
       </c>
       <c r="AT17">
-        <v>1.94</v>
+        <v>1.7</v>
       </c>
       <c r="AU17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>191</v>
-      </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="D18">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
       </c>
       <c r="H18">
-        <v>7.66</v>
-      </c>
-      <c r="J18">
-        <v>0.15</v>
-      </c>
-      <c r="K18" t="s">
-        <v>90</v>
-      </c>
-      <c r="L18">
-        <v>0.03</v>
-      </c>
-      <c r="M18" t="s">
-        <v>90</v>
+        <v>7.6</v>
+      </c>
+      <c r="I18">
+        <v>591.4</v>
       </c>
       <c r="N18">
-        <v>11.8</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="O18" t="s">
         <v>91</v>
       </c>
-      <c r="P18">
-        <v>0.115</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>91</v>
-      </c>
-      <c r="R18">
-        <v>14</v>
-      </c>
-      <c r="S18" t="s">
-        <v>91</v>
-      </c>
       <c r="T18">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="U18" t="s">
         <v>91</v>
       </c>
-      <c r="V18">
-        <v>19</v>
-      </c>
-      <c r="W18" t="s">
-        <v>91</v>
-      </c>
       <c r="X18">
-        <v>126</v>
+        <v>23.3</v>
       </c>
       <c r="Y18" t="s">
         <v>91</v>
       </c>
-      <c r="Z18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB18">
-        <v>0.1</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH18">
-        <v>0.215</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ18">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL18">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>91</v>
-      </c>
       <c r="AN18">
-        <v>108</v>
+        <v>8.9</v>
       </c>
       <c r="AO18" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR18">
-        <v>0.03</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT18">
-        <v>1.2</v>
-      </c>
-      <c r="AU18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>194</v>
+      <c r="B19" t="s">
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="D19">
         <v>2022</v>
       </c>
       <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19">
+        <v>7.48</v>
+      </c>
+      <c r="I19">
+        <v>399</v>
+      </c>
+      <c r="J19">
+        <v>0.05</v>
+      </c>
+      <c r="K19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19">
+        <v>0.02</v>
+      </c>
+      <c r="M19" t="s">
+        <v>90</v>
+      </c>
+      <c r="N19">
+        <v>5.24</v>
+      </c>
+      <c r="O19" t="s">
+        <v>91</v>
+      </c>
+      <c r="X19">
+        <v>43.7</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z19">
+        <v>0.02</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD19">
+        <v>0.01</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF19">
+        <v>0.01</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH19">
+        <v>0.05</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL19">
+        <v>2E-3</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN19">
+        <v>20.98</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP19">
+        <v>31.9</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR19">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT19">
+        <v>2.79</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20">
+        <v>2013</v>
+      </c>
+      <c r="E20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20">
+        <v>7.4</v>
+      </c>
+      <c r="I20">
+        <v>590</v>
+      </c>
+      <c r="J20">
+        <v>1.2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20">
+        <v>0.02</v>
+      </c>
+      <c r="M20" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20">
+        <v>27.9</v>
+      </c>
+      <c r="O20" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20">
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21">
+        <v>2022</v>
+      </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21">
+        <v>7.31</v>
+      </c>
+      <c r="I21">
+        <v>626</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21">
+        <v>0.2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>90</v>
+      </c>
+      <c r="N21">
+        <v>14.09</v>
+      </c>
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21">
+        <v>0.4</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21">
+        <v>1.55</v>
+      </c>
+      <c r="S21" t="s">
+        <v>91</v>
+      </c>
+      <c r="T21">
+        <v>92.37</v>
+      </c>
+      <c r="U21" t="s">
+        <v>91</v>
+      </c>
+      <c r="V21">
+        <v>17.43</v>
+      </c>
+      <c r="W21" t="s">
+        <v>91</v>
+      </c>
+      <c r="X21">
+        <v>25.8</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z21">
+        <v>2.9659999999999999E-2</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF21">
+        <v>0.02</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH21">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL21">
+        <v>1E-3</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN21">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP21">
+        <v>21.74</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT21">
+        <v>0.9</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22">
+        <v>2021</v>
+      </c>
+      <c r="E22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22">
+        <v>8.4</v>
+      </c>
+      <c r="I22">
+        <v>329</v>
+      </c>
+      <c r="J22">
+        <v>0.1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22">
+        <v>0.04</v>
+      </c>
+      <c r="M22" t="s">
+        <v>90</v>
+      </c>
+      <c r="T22">
+        <v>26</v>
+      </c>
+      <c r="U22" t="s">
+        <v>91</v>
+      </c>
+      <c r="V22">
+        <v>4.8</v>
+      </c>
+      <c r="W22" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z22">
+        <v>5.4500000000000007E-2</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD22">
+        <v>1E-4</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF22">
+        <v>0.01</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR22">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23">
+        <v>2022</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23">
+        <v>7.81</v>
+      </c>
+      <c r="I23">
+        <v>367</v>
+      </c>
+      <c r="J23">
+        <v>0.01</v>
+      </c>
+      <c r="K23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>90</v>
+      </c>
+      <c r="N23">
+        <v>6.8</v>
+      </c>
+      <c r="O23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23">
+        <v>0.02</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>90</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>90</v>
+      </c>
+      <c r="T23">
+        <v>53</v>
+      </c>
+      <c r="U23" t="s">
+        <v>91</v>
+      </c>
+      <c r="V23">
+        <v>14</v>
+      </c>
+      <c r="W23" t="s">
+        <v>91</v>
+      </c>
+      <c r="X23">
+        <v>21</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z23">
+        <v>0.01</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD23">
+        <v>1E-3</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF23">
+        <v>0.01</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL23">
+        <v>2E-3</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN23">
+        <v>2.6</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP23">
+        <v>5.7</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT23">
+        <v>1.79</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24">
+        <v>2022</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="I24">
+        <v>238</v>
+      </c>
+      <c r="J24">
+        <v>0.01</v>
+      </c>
+      <c r="K24" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M24" t="s">
+        <v>90</v>
+      </c>
+      <c r="N24">
+        <v>3.5</v>
+      </c>
+      <c r="O24" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24">
+        <v>0.02</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>90</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s">
+        <v>90</v>
+      </c>
+      <c r="T24">
+        <v>37</v>
+      </c>
+      <c r="U24" t="s">
+        <v>91</v>
+      </c>
+      <c r="V24">
+        <v>7.4</v>
+      </c>
+      <c r="W24" t="s">
+        <v>91</v>
+      </c>
+      <c r="X24">
+        <v>3.6</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z24">
+        <v>0.01</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF24">
+        <v>0.01</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL24">
+        <v>2E-3</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT24">
+        <v>0.94</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25">
+        <v>2022</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>7.67</v>
+      </c>
+      <c r="I25">
+        <v>538</v>
+      </c>
+      <c r="J25">
+        <v>0.05</v>
+      </c>
+      <c r="K25" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25">
+        <v>0.05</v>
+      </c>
+      <c r="M25" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25">
+        <v>6.4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25">
+        <v>0.04</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>90</v>
+      </c>
+      <c r="R25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S25" t="s">
+        <v>91</v>
+      </c>
+      <c r="T25">
+        <v>80.5</v>
+      </c>
+      <c r="U25" t="s">
+        <v>91</v>
+      </c>
+      <c r="V25">
+        <v>20.2</v>
+      </c>
+      <c r="W25" t="s">
+        <v>91</v>
+      </c>
+      <c r="X25">
+        <v>16.8</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z25">
+        <v>0.02</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB25">
+        <v>0.2</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD25">
+        <v>0.2</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH25">
+        <v>0.1</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL25">
+        <v>2E-3</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN25">
+        <v>5.4</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP25">
+        <v>10.8</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR25">
+        <v>0.02</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT25">
+        <v>0.3</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <v>7.74</v>
+      </c>
+      <c r="I26">
+        <v>570</v>
+      </c>
+      <c r="J26">
+        <v>0.16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26">
+        <v>1.65</v>
+      </c>
+      <c r="O26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>91</v>
+      </c>
+      <c r="R26">
+        <v>2.8</v>
+      </c>
+      <c r="S26" t="s">
+        <v>91</v>
+      </c>
+      <c r="T26">
+        <v>91.6</v>
+      </c>
+      <c r="U26" t="s">
+        <v>91</v>
+      </c>
+      <c r="V26">
+        <v>10.3</v>
+      </c>
+      <c r="W26" t="s">
+        <v>91</v>
+      </c>
+      <c r="X26">
+        <v>10</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z26">
+        <v>1E-3</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD26">
+        <v>0.01</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF26">
+        <v>2E-3</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL26">
+        <v>2E-3</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN26">
+        <v>15.5</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP26">
+        <v>19</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR26">
+        <v>0.02</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT26">
+        <v>2.4</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27">
+        <v>2021</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>7.8</v>
+      </c>
+      <c r="I27">
+        <v>385</v>
+      </c>
+      <c r="J27">
+        <v>0.04</v>
+      </c>
+      <c r="K27" t="s">
+        <v>90</v>
+      </c>
+      <c r="L27">
+        <v>0.03</v>
+      </c>
+      <c r="M27" t="s">
+        <v>90</v>
+      </c>
+      <c r="N27">
+        <v>0.9</v>
+      </c>
+      <c r="O27" t="s">
+        <v>91</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27" t="s">
+        <v>91</v>
+      </c>
+      <c r="T27">
+        <v>57</v>
+      </c>
+      <c r="U27" t="s">
+        <v>91</v>
+      </c>
+      <c r="V27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W27" t="s">
+        <v>91</v>
+      </c>
+      <c r="X27">
+        <v>21</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z27">
+        <v>0.01</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF27">
+        <v>0.01</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH27">
+        <v>0.1</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL27">
+        <v>1E-3</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN27">
+        <v>21</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP27">
+        <v>26</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR27">
+        <v>0.1</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT27">
+        <v>1</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28">
+        <v>2021</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>316</v>
+      </c>
+      <c r="J28">
+        <v>0.04</v>
+      </c>
+      <c r="K28" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28">
+        <v>0.03</v>
+      </c>
+      <c r="M28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N28">
+        <v>0.88</v>
+      </c>
+      <c r="O28" t="s">
+        <v>91</v>
+      </c>
+      <c r="R28">
+        <v>3.8</v>
+      </c>
+      <c r="S28" t="s">
+        <v>91</v>
+      </c>
+      <c r="T28">
+        <v>43</v>
+      </c>
+      <c r="U28" t="s">
+        <v>91</v>
+      </c>
+      <c r="V28">
+        <v>6.5</v>
+      </c>
+      <c r="W28" t="s">
+        <v>91</v>
+      </c>
+      <c r="X28">
+        <v>10</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z28">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF28">
+        <v>0.01</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH28">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL28">
+        <v>1E-3</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN28">
+        <v>12</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP28">
+        <v>20</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR28">
+        <v>0.01</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT28">
+        <v>1</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <v>8.14</v>
+      </c>
+      <c r="I29">
+        <v>242</v>
+      </c>
+      <c r="J29">
+        <v>0.05</v>
+      </c>
+      <c r="K29" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29">
+        <v>0.01</v>
+      </c>
+      <c r="M29" t="s">
+        <v>90</v>
+      </c>
+      <c r="N29">
+        <v>12.1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29">
+        <v>0.01</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>90</v>
+      </c>
+      <c r="R29">
+        <v>1.5</v>
+      </c>
+      <c r="S29" t="s">
+        <v>91</v>
+      </c>
+      <c r="T29">
+        <v>35.9</v>
+      </c>
+      <c r="U29" t="s">
+        <v>91</v>
+      </c>
+      <c r="V29">
+        <v>2.91</v>
+      </c>
+      <c r="W29" t="s">
+        <v>91</v>
+      </c>
+      <c r="X29">
+        <v>26.9</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z29">
+        <v>0.02</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB29">
+        <v>0.01</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD29">
+        <v>1E-3</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH29">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL29">
+        <v>2E-3</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN29">
+        <v>8.6</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP29">
+        <v>14.4</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR29">
+        <v>0.05</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT29">
+        <v>1.8</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30">
+        <v>7.96</v>
+      </c>
+      <c r="I30">
+        <v>478</v>
+      </c>
+      <c r="J30">
+        <v>0.05</v>
+      </c>
+      <c r="K30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30">
+        <v>0.01</v>
+      </c>
+      <c r="M30" t="s">
+        <v>90</v>
+      </c>
+      <c r="N30">
+        <v>13.6</v>
+      </c>
+      <c r="O30" t="s">
+        <v>91</v>
+      </c>
+      <c r="P30">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>91</v>
+      </c>
+      <c r="R30">
+        <v>5.26</v>
+      </c>
+      <c r="S30" t="s">
+        <v>91</v>
+      </c>
+      <c r="T30">
+        <v>49.3</v>
+      </c>
+      <c r="U30" t="s">
+        <v>91</v>
+      </c>
+      <c r="V30">
+        <v>10.6</v>
+      </c>
+      <c r="W30" t="s">
+        <v>91</v>
+      </c>
+      <c r="X30">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z30">
+        <v>0.02</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB30">
+        <v>0.01</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD30">
+        <v>2E-3</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF30">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH30">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL30">
+        <v>2E-3</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN30">
+        <v>29.2</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP30">
+        <v>40.4</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR30">
+        <v>0.05</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT30">
+        <v>1.2</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31">
+        <v>2020</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31">
+        <v>0.01</v>
+      </c>
+      <c r="K31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>90</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31">
+        <v>0.01</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>90</v>
+      </c>
+      <c r="R31">
+        <v>1.4</v>
+      </c>
+      <c r="S31" t="s">
+        <v>91</v>
+      </c>
+      <c r="T31">
+        <v>50</v>
+      </c>
+      <c r="U31" t="s">
+        <v>91</v>
+      </c>
+      <c r="V31">
+        <v>8.5</v>
+      </c>
+      <c r="W31" t="s">
+        <v>91</v>
+      </c>
+      <c r="X31">
+        <v>34</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z31">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD31">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF31">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH31">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ31">
+        <v>1E-3</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL31">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN31">
+        <v>5.6</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP31">
+        <v>7.7</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR31">
+        <v>0.01</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT31">
+        <v>0.93</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32">
+        <v>2020</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32">
+        <v>520</v>
+      </c>
+      <c r="J32">
+        <v>0.05</v>
+      </c>
+      <c r="K32" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32">
+        <v>0.01</v>
+      </c>
+      <c r="M32" t="s">
+        <v>90</v>
+      </c>
+      <c r="N32">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="O32" t="s">
+        <v>91</v>
+      </c>
+      <c r="R32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S32" t="s">
+        <v>91</v>
+      </c>
+      <c r="T32">
+        <v>76.3</v>
+      </c>
+      <c r="U32" t="s">
+        <v>91</v>
+      </c>
+      <c r="V32">
+        <v>11.5</v>
+      </c>
+      <c r="W32" t="s">
+        <v>91</v>
+      </c>
+      <c r="X32">
+        <v>27.1</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z32">
+        <v>0.02</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH32">
+        <v>0.05</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL32">
+        <v>2E-3</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN32">
+        <v>10.8</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP32">
+        <v>28.3</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT32">
+        <v>0.78</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33">
+        <v>2020</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33">
+        <v>339</v>
+      </c>
+      <c r="J33">
+        <v>0.05</v>
+      </c>
+      <c r="K33" t="s">
+        <v>90</v>
+      </c>
+      <c r="L33">
+        <v>0.01</v>
+      </c>
+      <c r="M33" t="s">
+        <v>90</v>
+      </c>
+      <c r="N33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O33" t="s">
+        <v>91</v>
+      </c>
+      <c r="R33">
+        <v>1.4</v>
+      </c>
+      <c r="S33" t="s">
+        <v>91</v>
+      </c>
+      <c r="T33">
+        <v>50.9</v>
+      </c>
+      <c r="U33" t="s">
+        <v>91</v>
+      </c>
+      <c r="V33">
+        <v>8.5</v>
+      </c>
+      <c r="W33" t="s">
+        <v>91</v>
+      </c>
+      <c r="X33">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z33">
+        <v>0.02</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH33">
+        <v>0.05</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL33">
+        <v>2E-3</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN33">
+        <v>5.7</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP33">
+        <v>7.9</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT33">
+        <v>0.92</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34">
+        <v>2021</v>
+      </c>
+      <c r="E34" t="s">
+        <v>178</v>
+      </c>
+      <c r="L34">
+        <v>0.01</v>
+      </c>
+      <c r="M34" t="s">
+        <v>90</v>
+      </c>
+      <c r="N34">
+        <v>1.2376666666666667</v>
+      </c>
+      <c r="O34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH34">
+        <v>0.02</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN34">
+        <v>35.5</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35">
+        <v>2022</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I35">
+        <v>323</v>
+      </c>
+      <c r="L35">
+        <v>0.25</v>
+      </c>
+      <c r="M35" t="s">
+        <v>90</v>
+      </c>
+      <c r="N35">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="O35" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35">
+        <v>0.06</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>90</v>
+      </c>
+      <c r="R35">
+        <v>1.37</v>
+      </c>
+      <c r="S35" t="s">
+        <v>91</v>
+      </c>
+      <c r="T35">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="U35" t="s">
+        <v>91</v>
+      </c>
+      <c r="V35">
+        <v>11.8</v>
+      </c>
+      <c r="W35" t="s">
+        <v>91</v>
+      </c>
+      <c r="X35">
+        <v>23</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z35">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB35">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD35">
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF35">
+        <v>1E-3</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH35">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ35">
+        <v>1E-3</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL35">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN35">
+        <v>8.68</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP35">
+        <v>14.2</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR35">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT35">
+        <v>1.94</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36">
+        <v>2022</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36">
+        <v>7.8</v>
+      </c>
+      <c r="I36">
+        <v>330</v>
+      </c>
+      <c r="L36">
+        <v>0.25</v>
+      </c>
+      <c r="M36" t="s">
+        <v>90</v>
+      </c>
+      <c r="N36">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="O36" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>91</v>
+      </c>
+      <c r="R36">
+        <v>1.4</v>
+      </c>
+      <c r="S36" t="s">
+        <v>91</v>
+      </c>
+      <c r="T36">
+        <v>35</v>
+      </c>
+      <c r="U36" t="s">
+        <v>91</v>
+      </c>
+      <c r="V36">
+        <v>12.1</v>
+      </c>
+      <c r="W36" t="s">
+        <v>91</v>
+      </c>
+      <c r="X36">
+        <v>27.7</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z36">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB36">
+        <v>6.9300000000000004E-3</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD36">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF36">
+        <v>1E-3</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH36">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ36">
+        <v>1.17E-3</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL36">
+        <v>1E-3</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN36">
+        <v>9.33</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP36">
+        <v>17.2</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR36">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT36">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37">
+        <v>2022</v>
+      </c>
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37">
+        <v>7.66</v>
+      </c>
+      <c r="J37">
+        <v>0.15</v>
+      </c>
+      <c r="K37" t="s">
+        <v>90</v>
+      </c>
+      <c r="L37">
+        <v>0.03</v>
+      </c>
+      <c r="M37" t="s">
+        <v>90</v>
+      </c>
+      <c r="N37">
+        <v>11.8</v>
+      </c>
+      <c r="O37" t="s">
+        <v>91</v>
+      </c>
+      <c r="P37">
+        <v>0.115</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>91</v>
+      </c>
+      <c r="R37">
+        <v>14</v>
+      </c>
+      <c r="S37" t="s">
+        <v>91</v>
+      </c>
+      <c r="T37">
+        <v>77</v>
+      </c>
+      <c r="U37" t="s">
+        <v>91</v>
+      </c>
+      <c r="V37">
+        <v>19</v>
+      </c>
+      <c r="W37" t="s">
+        <v>91</v>
+      </c>
+      <c r="X37">
+        <v>126</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB37">
+        <v>0.1</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH37">
+        <v>0.215</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ37">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL37">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN37">
+        <v>108</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR37">
+        <v>0.03</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT37">
+        <v>1.2</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38">
+        <v>2022</v>
+      </c>
+      <c r="E38" t="s">
         <v>30</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G38" t="s">
         <v>40</v>
       </c>
-      <c r="H19">
+      <c r="H38">
         <v>8</v>
       </c>
-      <c r="I19">
+      <c r="I38">
         <v>299</v>
       </c>
-      <c r="N19">
+      <c r="N38">
         <v>3.5</v>
       </c>
-      <c r="O19" t="s">
-        <v>91</v>
-      </c>
-      <c r="R19">
+      <c r="O38" t="s">
+        <v>91</v>
+      </c>
+      <c r="R38">
         <v>1.2</v>
       </c>
-      <c r="S19" t="s">
-        <v>91</v>
-      </c>
-      <c r="T19">
+      <c r="S38" t="s">
+        <v>91</v>
+      </c>
+      <c r="T38">
         <v>40.200000000000003</v>
       </c>
-      <c r="U19" t="s">
-        <v>91</v>
-      </c>
-      <c r="V19">
+      <c r="U38" t="s">
+        <v>91</v>
+      </c>
+      <c r="V38">
         <v>5.5</v>
       </c>
-      <c r="W19" t="s">
-        <v>91</v>
-      </c>
-      <c r="X19">
+      <c r="W38" t="s">
+        <v>91</v>
+      </c>
+      <c r="X38">
         <v>14</v>
       </c>
-      <c r="Y19" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN19">
+      <c r="Y38" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN38">
         <v>4.7</v>
       </c>
-      <c r="AO19" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP19">
+      <c r="AO38" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP38">
         <v>6.3</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AQ38" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5721,7 +7805,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6130,6 +8214,9 @@
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="D4" s="5">
         <v>2021</v>
       </c>
@@ -6249,6 +8336,9 @@
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D5" s="5">
         <v>2021</v>
       </c>
@@ -6361,6 +8451,9 @@
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="D6" s="5">
         <v>2021</v>

--- a/data/contribution/Aquaponics - Water Quality.xlsx
+++ b/data/contribution/Aquaponics - Water Quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD/Projekte/Projekt18 - PhD-Aquaponics/data/contribution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35422612-2463-E543-AD41-1A2744C5E5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B3F4FF-870D-0440-A251-689B1891F1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="33600" activeTab="1" xr2:uid="{C5E9C466-93C4-574F-B63C-9AC7A4C519C5}"/>
   </bookViews>
